--- a/SALES STATEMENTS/WEEK 30-11-25 TO 06-12-25/T. MURUGAN.xlsx
+++ b/SALES STATEMENTS/WEEK 30-11-25 TO 06-12-25/T. MURUGAN.xlsx
@@ -118,25 +118,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -445,7 +445,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
@@ -457,137 +457,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="45">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:11" ht="30">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>45820</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>5.46</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>300</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f>G4*H4</f>
         <v>1638</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>0</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <f>ROUND(I4+J4,-1)</f>
         <v>1640</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="8">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7">
         <f>SUM(G4:G4)</f>
         <v>5.46</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7">
         <f>SUM(K4:K4)</f>
         <v>1640</v>
       </c>
